--- a/RCD.xlsx
+++ b/RCD.xlsx
@@ -12637,7 +12637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -13763,7 +13763,7 @@
     <col min="8" max="8" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13785,7 +13785,7 @@
       <c r="G1" s="130"/>
       <c r="H1" s="131"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
       <c r="A4" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="H4" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="H5" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="H6" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
       <c r="A7" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="H7" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
       <c r="A8" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13957,7 +13957,7 @@
       </c>
       <c r="H8" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="5" t="s">
         <v>3802</v>
       </c>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="H9" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="H10" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="H11" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="H12" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14077,7 +14077,7 @@
       </c>
       <c r="H13" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="H14" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="H15" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="135" t="s">
         <v>3802</v>
       </c>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="H16" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
       <c r="C17" s="134"/>
@@ -14159,7 +14159,7 @@
       <c r="G17" s="134"/>
       <c r="H17" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="H20" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="H21" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="H22" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="H23" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="H24" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="H25" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="H26" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="H27" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="H28" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="H29" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14475,7 +14475,7 @@
       </c>
       <c r="H30" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
       <c r="A31" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="H31" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="H32" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="135" t="s">
         <v>3802</v>
       </c>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="H33" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="134"/>
       <c r="B34" s="134"/>
       <c r="C34" s="134"/>
@@ -14557,7 +14557,7 @@
       <c r="G34" s="134"/>
       <c r="H34" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
       <c r="A38" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="H38" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
       <c r="A39" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14683,7 +14683,7 @@
       </c>
       <c r="H39" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14707,7 +14707,7 @@
       </c>
       <c r="H40" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="H41" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="H42" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="H43" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="H44" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14827,7 +14827,7 @@
       </c>
       <c r="H45" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="H46" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
       <c r="A47" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="H47" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="H48" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="H49" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="135" t="s">
         <v>3802</v>
       </c>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="H50" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
       <c r="A51" s="134"/>
       <c r="B51" s="134"/>
       <c r="C51" s="134"/>
@@ -14957,7 +14957,7 @@
       <c r="G51" s="134"/>
       <c r="H51" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
         <v>3802</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="H54" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
       <c r="A55" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15057,7 +15057,7 @@
       </c>
       <c r="H55" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
       <c r="A56" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="H56" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
       <c r="A57" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15105,7 +15105,7 @@
       </c>
       <c r="H57" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="H58" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="H59" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="H60" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="H61" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="H62" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15249,7 +15249,7 @@
       </c>
       <c r="H63" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="H64" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="135" t="s">
         <v>3802</v>
       </c>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="H65" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="134"/>
       <c r="B66" s="134"/>
       <c r="C66" s="134"/>
@@ -15307,7 +15307,7 @@
       <c r="G66" s="134"/>
       <c r="H66" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="H69" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="H70" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15431,7 +15431,7 @@
       </c>
       <c r="H71" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
       <c r="A72" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="H72" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="H73" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="H74" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15527,7 +15527,7 @@
       </c>
       <c r="H75" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="H76" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="H77" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="H78" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="H79" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="H80" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="H81" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
       <c r="A82" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="H82" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
       <c r="A83" s="135" t="s">
         <v>3802</v>
       </c>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="H83" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="134"/>
       <c r="B84" s="134"/>
       <c r="C84" s="134"/>
@@ -15729,7 +15729,7 @@
       <c r="G84" s="134"/>
       <c r="H84" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15831,7 +15831,7 @@
       </c>
       <c r="H88" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
       <c r="A89" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="H89" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
       <c r="A90" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="H90" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
       <c r="A91" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="H91" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
       <c r="A92" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="H93" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
       <c r="A94" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="H94" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
       <c r="A95" s="5" t="s">
         <v>3802</v>
       </c>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="H95" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
       <c r="A96" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16023,7 +16023,7 @@
       </c>
       <c r="H96" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="H97" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
       <c r="A98" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="H98" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
       <c r="A99" s="135" t="s">
         <v>3802</v>
       </c>
@@ -16095,7 +16095,7 @@
       </c>
       <c r="H99" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
       <c r="A100" s="134"/>
       <c r="B100" s="134"/>
       <c r="C100" s="134"/>
@@ -16105,7 +16105,7 @@
       <c r="G100" s="134"/>
       <c r="H100" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
       <c r="A101" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
       <c r="A102" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="H102" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
       <c r="A103" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="H103" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
       <c r="A104" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16203,7 +16203,7 @@
       </c>
       <c r="H104" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
       <c r="A105" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="H105" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
       <c r="A106" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="H106" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
       <c r="A107" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="H107" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
       <c r="A108" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="H108" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
       <c r="A109" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16323,7 +16323,7 @@
       </c>
       <c r="H109" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
       <c r="A110" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16347,7 +16347,7 @@
       </c>
       <c r="H110" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
       <c r="A111" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16371,7 +16371,7 @@
       </c>
       <c r="H111" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
       <c r="A112" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="H112" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
       <c r="A113" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="H113" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
       <c r="A114" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="H114" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
       <c r="A115" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="H115" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
       <c r="A116" s="135" t="s">
         <v>3802</v>
       </c>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="H116" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
       <c r="A117" s="134"/>
       <c r="B117" s="134"/>
       <c r="C117" s="134"/>
@@ -16501,7 +16501,7 @@
       <c r="G117" s="134"/>
       <c r="H117" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
       <c r="A118" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
       <c r="A119" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="H119" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
       <c r="A120" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="H120" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
       <c r="A121" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16599,7 +16599,7 @@
       </c>
       <c r="H121" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
       <c r="A122" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="H122" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
       <c r="A123" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="H123" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
       <c r="A124" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="H124" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
       <c r="A125" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16695,7 +16695,7 @@
       </c>
       <c r="H125" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
       <c r="A126" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="H126" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
       <c r="A127" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="H127" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
       <c r="A128" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16767,7 +16767,7 @@
       </c>
       <c r="H128" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
       <c r="A129" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="H129" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
       <c r="A130" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="H130" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
       <c r="A131" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="H131" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
       <c r="A132" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="H132" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
       <c r="A133" s="135" t="s">
         <v>3802</v>
       </c>
@@ -16887,7 +16887,7 @@
       </c>
       <c r="H133" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
       <c r="A134" s="134"/>
       <c r="B134" s="134"/>
       <c r="C134" s="134"/>
@@ -16897,7 +16897,7 @@
       <c r="G134" s="134"/>
       <c r="H134" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
       <c r="A135" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
       <c r="A136" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
       <c r="A137" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16969,7 +16969,7 @@
       <c r="G137" s="134"/>
       <c r="H137" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
       <c r="A138" s="5" t="s">
         <v>3802</v>
       </c>
@@ -16991,7 +16991,7 @@
       <c r="G138" s="134"/>
       <c r="H138" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
       <c r="A139" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17013,7 +17013,7 @@
       <c r="G139" s="134"/>
       <c r="H139" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
       <c r="A140" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17035,7 +17035,7 @@
       <c r="G140" s="134"/>
       <c r="H140" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
       <c r="A141" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17057,7 +17057,7 @@
       <c r="G141" s="134"/>
       <c r="H141" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
       <c r="A142" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="G142" s="134"/>
       <c r="H142" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
       <c r="A143" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17101,7 +17101,7 @@
       <c r="G143" s="134"/>
       <c r="H143" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
       <c r="A144" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17123,7 +17123,7 @@
       <c r="G144" s="134"/>
       <c r="H144" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
       <c r="A145" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17145,7 +17145,7 @@
       <c r="G145" s="134"/>
       <c r="H145" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
       <c r="A146" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17167,7 +17167,7 @@
       <c r="G146" s="134"/>
       <c r="H146" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
       <c r="A147" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17189,7 +17189,7 @@
       <c r="G147" s="134"/>
       <c r="H147" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
       <c r="A148" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17211,7 +17211,7 @@
       <c r="G148" s="134"/>
       <c r="H148" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
       <c r="A149" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17233,7 +17233,7 @@
       <c r="G149" s="134"/>
       <c r="H149" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
       <c r="A150" s="135" t="s">
         <v>3802</v>
       </c>
@@ -17255,7 +17255,7 @@
       <c r="G150" s="134"/>
       <c r="H150" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" hidden="1">
       <c r="A151" s="134"/>
       <c r="B151" s="134"/>
       <c r="C151" s="134"/>
@@ -17265,7 +17265,7 @@
       <c r="G151" s="134"/>
       <c r="H151" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
       <c r="A152" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
       <c r="A153" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17313,7 +17313,7 @@
       <c r="G153" s="134"/>
       <c r="H153" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
       <c r="A154" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17335,7 +17335,7 @@
       <c r="G154" s="134"/>
       <c r="H154" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
       <c r="A155" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17357,7 +17357,7 @@
       <c r="G155" s="134"/>
       <c r="H155" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
       <c r="A156" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17379,7 +17379,7 @@
       <c r="G156" s="134"/>
       <c r="H156" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
       <c r="A157" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17401,7 +17401,7 @@
       <c r="G157" s="134"/>
       <c r="H157" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
       <c r="A158" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17423,7 +17423,7 @@
       <c r="G158" s="134"/>
       <c r="H158" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
       <c r="A159" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17445,7 +17445,7 @@
       <c r="G159" s="134"/>
       <c r="H159" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
       <c r="A160" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17467,7 +17467,7 @@
       <c r="G160" s="134"/>
       <c r="H160" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
       <c r="A161" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17489,7 +17489,7 @@
       <c r="G161" s="134"/>
       <c r="H161" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
       <c r="A162" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17511,7 +17511,7 @@
       <c r="G162" s="134"/>
       <c r="H162" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
       <c r="A163" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17533,7 +17533,7 @@
       <c r="G163" s="134"/>
       <c r="H163" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
       <c r="A164" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17555,7 +17555,7 @@
       <c r="G164" s="134"/>
       <c r="H164" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
       <c r="A165" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17577,7 +17577,7 @@
       <c r="G165" s="134"/>
       <c r="H165" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
       <c r="A166" s="5" t="s">
         <v>3802</v>
       </c>
@@ -17599,7 +17599,7 @@
       <c r="G166" s="134"/>
       <c r="H166" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
       <c r="A167" s="135" t="s">
         <v>3802</v>
       </c>
@@ -17621,7 +17621,7 @@
       <c r="G167" s="134"/>
       <c r="H167" s="134"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
       <c r="A168" s="134"/>
       <c r="B168" s="134"/>
       <c r="C168" s="134"/>
@@ -29776,7 +29776,7 @@
     <col min="12" max="12" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="5" t="s">
         <v>1821</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="5" t="s">
         <v>1821</v>
       </c>
@@ -29880,7 +29880,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
       <c r="A4" s="5" t="s">
         <v>1821</v>
       </c>
@@ -29912,7 +29912,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="5" t="s">
         <v>1821</v>
       </c>
@@ -29944,7 +29944,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="5" t="s">
         <v>1821</v>
       </c>
@@ -29976,7 +29976,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
       <c r="A7" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30008,7 +30008,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="119"/>
@@ -30022,7 +30022,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30058,7 +30058,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30090,7 +30090,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30122,7 +30122,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30154,7 +30154,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30186,7 +30186,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30218,7 +30218,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30250,7 +30250,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30282,7 +30282,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
       <c r="A17" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30314,7 +30314,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30346,7 +30346,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="119"/>
@@ -30360,7 +30360,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30396,7 +30396,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30428,7 +30428,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30460,7 +30460,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30492,7 +30492,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30524,7 +30524,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30556,7 +30556,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30588,7 +30588,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30620,7 +30620,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30652,7 +30652,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30684,7 +30684,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30716,7 +30716,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
       <c r="A31" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30748,7 +30748,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30780,7 +30780,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30812,7 +30812,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30844,7 +30844,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30876,7 +30876,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30908,7 +30908,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30940,7 +30940,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="119"/>
@@ -30954,7 +30954,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
       <c r="A39" s="5" t="s">
         <v>1821</v>
       </c>
@@ -30990,7 +30990,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31022,7 +31022,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31054,7 +31054,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31086,7 +31086,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31118,7 +31118,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31150,7 +31150,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31182,7 +31182,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="119"/>
@@ -31196,7 +31196,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
       <c r="A47" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31264,7 +31264,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31296,7 +31296,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31328,7 +31328,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
       <c r="A51" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31360,7 +31360,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31392,7 +31392,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31424,7 +31424,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31456,7 +31456,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
       <c r="A55" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31488,7 +31488,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="119"/>
@@ -31502,7 +31502,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
       <c r="A57" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31570,7 +31570,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31602,7 +31602,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31634,7 +31634,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31666,7 +31666,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31698,7 +31698,7 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31730,7 +31730,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31762,7 +31762,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31794,7 +31794,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31826,7 +31826,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31858,7 +31858,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31890,7 +31890,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31922,7 +31922,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31954,7 +31954,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="119"/>
@@ -31968,7 +31968,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
       <c r="A72" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32004,7 +32004,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32036,7 +32036,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32068,7 +32068,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32100,7 +32100,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32132,7 +32132,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32164,7 +32164,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32196,7 +32196,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32228,7 +32228,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32260,7 +32260,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32292,7 +32292,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
       <c r="A82" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32324,7 +32324,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
       <c r="A83" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32356,7 +32356,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32388,7 +32388,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32420,7 +32420,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32452,7 +32452,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32484,7 +32484,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32516,7 +32516,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
       <c r="A89" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32548,7 +32548,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="119"/>
@@ -32562,7 +32562,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
       <c r="A91" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
       <c r="A92" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32630,7 +32630,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
       <c r="A93" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32662,7 +32662,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
       <c r="A94" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32694,7 +32694,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
       <c r="A95" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32726,7 +32726,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
       <c r="A96" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32758,7 +32758,7 @@
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32790,7 +32790,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
       <c r="A98" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32822,7 +32822,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
       <c r="A99" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32854,7 +32854,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
       <c r="A100" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32886,7 +32886,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
       <c r="A101" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32918,7 +32918,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
       <c r="A102" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32950,7 +32950,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
       <c r="A103" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32982,7 +32982,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
       <c r="A104" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33014,7 +33014,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
       <c r="A105" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33046,7 +33046,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="119"/>
@@ -33060,7 +33060,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
       <c r="A107" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
       <c r="A108" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33128,7 +33128,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
       <c r="A109" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33160,7 +33160,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
       <c r="A110" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33192,7 +33192,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
       <c r="A111" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33224,7 +33224,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
       <c r="A112" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33256,7 +33256,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
       <c r="A113" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33288,7 +33288,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
       <c r="A114" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33320,7 +33320,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
       <c r="A115" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33352,7 +33352,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
       <c r="A116" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33384,7 +33384,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
       <c r="A117" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33416,7 +33416,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
       <c r="A118" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33448,7 +33448,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
       <c r="A119" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33480,7 +33480,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
       <c r="A120" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33512,7 +33512,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
       <c r="A121" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33544,7 +33544,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
       <c r="A122" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33576,7 +33576,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="119"/>
@@ -33590,7 +33590,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
       <c r="A124" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33626,7 +33626,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
       <c r="A125" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33658,7 +33658,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
       <c r="A126" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33690,7 +33690,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
       <c r="A127" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33722,7 +33722,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
       <c r="A128" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33754,7 +33754,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
       <c r="A129" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33786,7 +33786,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
       <c r="A130" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33818,7 +33818,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
       <c r="A131" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33850,7 +33850,7 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
       <c r="A132" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33882,7 +33882,7 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
       <c r="A133" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33914,7 +33914,7 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
       <c r="A134" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33946,7 +33946,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
       <c r="A135" s="5" t="s">
         <v>1821</v>
       </c>
@@ -33978,7 +33978,7 @@
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
       <c r="A136" s="5" t="s">
         <v>1821</v>
       </c>
@@ -34010,7 +34010,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
       <c r="A137" s="5" t="s">
         <v>1821</v>
       </c>
@@ -34042,7 +34042,7 @@
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
       <c r="A138" s="5" t="s">
         <v>1821</v>
       </c>
@@ -34074,7 +34074,7 @@
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
       <c r="A139" s="5" t="s">
         <v>1821</v>
       </c>
@@ -34106,7 +34106,7 @@
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="119"/>
@@ -34120,7 +34120,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
       <c r="A141" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34156,7 +34156,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
       <c r="A142" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34190,7 +34190,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
       <c r="A143" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34222,7 +34222,7 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
       <c r="A144" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34254,7 +34254,7 @@
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
       <c r="A145" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34286,7 +34286,7 @@
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
       <c r="A146" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34318,7 +34318,7 @@
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
       <c r="A147" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34350,7 +34350,7 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
       <c r="A148" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34382,7 +34382,7 @@
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
       <c r="A149" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34414,7 +34414,7 @@
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="119"/>
@@ -34428,7 +34428,7 @@
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" hidden="1">
       <c r="A151" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34464,7 +34464,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
       <c r="A152" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34498,7 +34498,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
       <c r="A153" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34530,7 +34530,7 @@
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
       <c r="A154" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34562,7 +34562,7 @@
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
       <c r="A155" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34594,7 +34594,7 @@
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
       <c r="A156" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34626,7 +34626,7 @@
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
       <c r="A157" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34658,7 +34658,7 @@
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
       <c r="A158" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34690,7 +34690,7 @@
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
       <c r="A159" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34708,7 +34708,7 @@
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="119"/>
@@ -34722,7 +34722,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
       <c r="A161" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
       <c r="A162" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34792,7 +34792,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
       <c r="A163" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34824,7 +34824,7 @@
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
       <c r="A164" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34856,7 +34856,7 @@
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
       <c r="A165" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34888,7 +34888,7 @@
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
       <c r="A166" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34920,7 +34920,7 @@
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="119"/>
@@ -34934,7 +34934,7 @@
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
       <c r="A168" s="5" t="s">
         <v>2205</v>
       </c>
@@ -34970,7 +34970,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
       <c r="A169" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35002,7 +35002,7 @@
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
       <c r="A170" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35034,7 +35034,7 @@
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
       <c r="A171" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35066,7 +35066,7 @@
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
       <c r="A172" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35098,7 +35098,7 @@
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
       <c r="A173" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35130,7 +35130,7 @@
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
       <c r="A174" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35162,7 +35162,7 @@
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
       <c r="A175" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35194,7 +35194,7 @@
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="119"/>
@@ -35208,7 +35208,7 @@
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
       <c r="A177" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35244,7 +35244,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
       <c r="A178" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35276,7 +35276,7 @@
       <c r="K178" s="5"/>
       <c r="L178" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
       <c r="A179" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35308,7 +35308,7 @@
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
       <c r="A180" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35340,7 +35340,7 @@
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
       <c r="A181" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35372,7 +35372,7 @@
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
       <c r="A182" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35404,7 +35404,7 @@
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
       <c r="A183" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35432,7 +35432,7 @@
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" hidden="1">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="119"/>
@@ -35446,7 +35446,7 @@
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
       <c r="A185" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35482,7 +35482,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
       <c r="A186" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35514,7 +35514,7 @@
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
       <c r="A187" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35546,7 +35546,7 @@
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
       <c r="A188" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35578,7 +35578,7 @@
       <c r="K188" s="5"/>
       <c r="L188" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
       <c r="A189" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35610,7 +35610,7 @@
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
       <c r="A190" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35642,7 +35642,7 @@
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
       <c r="A191" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35674,7 +35674,7 @@
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
       <c r="A192" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35706,7 +35706,7 @@
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="119"/>
@@ -35720,7 +35720,7 @@
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
       <c r="A194" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35756,7 +35756,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" hidden="1">
       <c r="A195" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35788,7 +35788,7 @@
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" hidden="1">
       <c r="A196" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35820,7 +35820,7 @@
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" hidden="1">
       <c r="A197" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35852,7 +35852,7 @@
       <c r="K197" s="5"/>
       <c r="L197" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
       <c r="A198" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35884,7 +35884,7 @@
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
       <c r="A199" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35916,7 +35916,7 @@
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
       <c r="A200" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35948,7 +35948,7 @@
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="119"/>
@@ -35962,7 +35962,7 @@
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
       <c r="A202" s="5" t="s">
         <v>2205</v>
       </c>
@@ -35998,7 +35998,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
       <c r="A203" s="5" t="s">
         <v>2205</v>
       </c>
@@ -36030,7 +36030,7 @@
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" hidden="1">
       <c r="A204" s="5" t="s">
         <v>2205</v>
       </c>
@@ -36062,7 +36062,7 @@
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" hidden="1">
       <c r="A205" s="5" t="s">
         <v>2205</v>
       </c>
@@ -36094,7 +36094,7 @@
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" hidden="1">
       <c r="A206" s="5" t="s">
         <v>2205</v>
       </c>
@@ -36126,7 +36126,7 @@
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" hidden="1">
       <c r="A207" s="5" t="s">
         <v>2205</v>
       </c>
@@ -36158,7 +36158,7 @@
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
       <c r="A208" s="5" t="s">
         <v>2205</v>
       </c>
@@ -36190,7 +36190,7 @@
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="119"/>
@@ -36204,7 +36204,7 @@
       <c r="K209" s="9"/>
       <c r="L209" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" hidden="1">
       <c r="A210" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36240,7 +36240,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
       <c r="A211" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36272,7 +36272,7 @@
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
       <c r="A212" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36304,7 +36304,7 @@
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
       <c r="A213" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36336,7 +36336,7 @@
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
       <c r="A214" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36368,7 +36368,7 @@
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
       <c r="A215" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36400,7 +36400,7 @@
       <c r="K215" s="5"/>
       <c r="L215" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
       <c r="A216" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36432,7 +36432,7 @@
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="119"/>
@@ -36446,7 +36446,7 @@
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
       <c r="A218" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36482,7 +36482,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" hidden="1">
       <c r="A219" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36514,7 +36514,7 @@
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
       <c r="A220" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36546,7 +36546,7 @@
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
       <c r="A221" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36578,7 +36578,7 @@
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" hidden="1">
       <c r="A222" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36610,7 +36610,7 @@
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" hidden="1">
       <c r="A223" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36642,7 +36642,7 @@
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
       <c r="A224" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36674,7 +36674,7 @@
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
       <c r="A225" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36706,7 +36706,7 @@
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" hidden="1">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="119"/>
@@ -36720,7 +36720,7 @@
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" hidden="1">
       <c r="A227" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36756,7 +36756,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
       <c r="A228" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36788,7 +36788,7 @@
       <c r="K228" s="5"/>
       <c r="L228" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" hidden="1">
       <c r="A229" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36820,7 +36820,7 @@
       <c r="K229" s="5"/>
       <c r="L229" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
       <c r="A230" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36852,7 +36852,7 @@
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
       <c r="A231" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36884,7 +36884,7 @@
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" hidden="1">
       <c r="A232" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36916,7 +36916,7 @@
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
       <c r="A233" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36948,7 +36948,7 @@
       <c r="K233" s="5"/>
       <c r="L233" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="119"/>
@@ -36962,7 +36962,7 @@
       <c r="K234" s="9"/>
       <c r="L234" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
       <c r="A235" s="5" t="s">
         <v>2392</v>
       </c>
@@ -36998,7 +36998,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
       <c r="A236" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37030,7 +37030,7 @@
       <c r="K236" s="5"/>
       <c r="L236" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
       <c r="A237" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37062,7 +37062,7 @@
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
       <c r="A238" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37094,7 +37094,7 @@
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
       <c r="A239" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37126,7 +37126,7 @@
       <c r="K239" s="5"/>
       <c r="L239" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
       <c r="A240" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37144,7 +37144,7 @@
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
       <c r="A241" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37176,7 +37176,7 @@
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" hidden="1">
       <c r="A242" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37208,7 +37208,7 @@
       <c r="K242" s="5"/>
       <c r="L242" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" hidden="1">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="119"/>
@@ -37222,7 +37222,7 @@
       <c r="K243" s="9"/>
       <c r="L243" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
       <c r="A244" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37258,7 +37258,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
       <c r="A245" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37290,7 +37290,7 @@
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
       <c r="A246" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37322,7 +37322,7 @@
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
       <c r="A247" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37354,7 +37354,7 @@
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
       <c r="A248" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37386,7 +37386,7 @@
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
       <c r="A249" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37418,7 +37418,7 @@
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
       <c r="A250" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37450,7 +37450,7 @@
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="119"/>
@@ -37464,7 +37464,7 @@
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
       <c r="A252" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37500,7 +37500,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
       <c r="A253" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37534,7 +37534,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
       <c r="A254" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37566,7 +37566,7 @@
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" hidden="1">
       <c r="A255" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37598,7 +37598,7 @@
       <c r="K255" s="12"/>
       <c r="L255" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
       <c r="A256" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37630,7 +37630,7 @@
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
       <c r="A257" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37662,7 +37662,7 @@
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
       <c r="A258" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37694,7 +37694,7 @@
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
       <c r="A259" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37726,7 +37726,7 @@
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
       <c r="A260" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37758,7 +37758,7 @@
       <c r="K260" s="12"/>
       <c r="L260" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="119"/>
@@ -37772,7 +37772,7 @@
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" hidden="1">
       <c r="A262" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37808,7 +37808,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" hidden="1">
       <c r="A263" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37840,7 +37840,7 @@
       <c r="K263" s="5"/>
       <c r="L263" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
       <c r="A264" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37872,7 +37872,7 @@
       <c r="K264" s="5"/>
       <c r="L264" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
       <c r="A265" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37904,7 +37904,7 @@
       <c r="K265" s="5"/>
       <c r="L265" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
       <c r="A266" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37936,7 +37936,7 @@
       <c r="K266" s="5"/>
       <c r="L266" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
       <c r="A267" s="5" t="s">
         <v>2392</v>
       </c>
@@ -37968,7 +37968,7 @@
       <c r="K267" s="5"/>
       <c r="L267" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
       <c r="A268" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38000,7 +38000,7 @@
       <c r="K268" s="5"/>
       <c r="L268" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
       <c r="A269" s="5"/>
       <c r="B269" s="5" t="s">
         <v>2531</v>
@@ -38030,7 +38030,7 @@
       <c r="K269" s="5"/>
       <c r="L269" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="119"/>
@@ -38044,7 +38044,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
       <c r="A271" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38080,7 +38080,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
       <c r="A272" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38112,7 +38112,7 @@
       <c r="K272" s="5"/>
       <c r="L272" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
       <c r="A273" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38140,7 +38140,7 @@
       <c r="K273" s="5"/>
       <c r="L273" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
       <c r="A274" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38172,7 +38172,7 @@
       <c r="K274" s="5"/>
       <c r="L274" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="25"/>
@@ -38186,7 +38186,7 @@
       <c r="K275" s="5"/>
       <c r="L275" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
       <c r="A276" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38218,7 +38218,7 @@
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
       <c r="A277" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38250,7 +38250,7 @@
       <c r="K277" s="5"/>
       <c r="L277" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" hidden="1">
       <c r="A278" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38282,7 +38282,7 @@
       <c r="K278" s="5"/>
       <c r="L278" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="119"/>
@@ -38296,7 +38296,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" hidden="1">
       <c r="A280" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38332,7 +38332,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
       <c r="A281" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38364,7 +38364,7 @@
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" hidden="1">
       <c r="A282" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38396,7 +38396,7 @@
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" hidden="1">
       <c r="A283" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38428,7 +38428,7 @@
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" hidden="1">
       <c r="A284" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38460,7 +38460,7 @@
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" hidden="1">
       <c r="A285" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38492,7 +38492,7 @@
       <c r="K285" s="5"/>
       <c r="L285" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" hidden="1">
       <c r="A286" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38524,7 +38524,7 @@
       <c r="K286" s="5"/>
       <c r="L286" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" hidden="1">
       <c r="A287" s="5" t="s">
         <v>2392</v>
       </c>
@@ -38556,7 +38556,7 @@
       <c r="K287" s="5"/>
       <c r="L287" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" hidden="1">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="119"/>
@@ -38570,7 +38570,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" hidden="1">
       <c r="A289" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38606,7 +38606,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" hidden="1">
       <c r="A290" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38638,7 +38638,7 @@
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" hidden="1">
       <c r="A291" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38670,7 +38670,7 @@
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" hidden="1">
       <c r="A292" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38702,7 +38702,7 @@
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" hidden="1">
       <c r="A293" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38734,7 +38734,7 @@
       <c r="K293" s="5"/>
       <c r="L293" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" hidden="1">
       <c r="A294" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38766,7 +38766,7 @@
       <c r="K294" s="5"/>
       <c r="L294" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" hidden="1">
       <c r="A295" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38798,7 +38798,7 @@
       <c r="K295" s="5"/>
       <c r="L295" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" hidden="1">
       <c r="A296" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38830,7 +38830,7 @@
       <c r="K296" s="5"/>
       <c r="L296" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" hidden="1">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="119"/>
@@ -38844,7 +38844,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" hidden="1">
       <c r="A298" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38880,7 +38880,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" hidden="1">
       <c r="A299" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38912,7 +38912,7 @@
       <c r="K299" s="5"/>
       <c r="L299" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" hidden="1">
       <c r="A300" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38944,7 +38944,7 @@
       <c r="K300" s="5"/>
       <c r="L300" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" hidden="1">
       <c r="A301" s="5" t="s">
         <v>2599</v>
       </c>
@@ -38976,7 +38976,7 @@
       <c r="K301" s="5"/>
       <c r="L301" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" hidden="1">
       <c r="A302" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39008,7 +39008,7 @@
       <c r="K302" s="5"/>
       <c r="L302" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" hidden="1">
       <c r="A303" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39038,7 +39038,7 @@
       <c r="K303" s="5"/>
       <c r="L303" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" hidden="1">
       <c r="A304" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39070,7 +39070,7 @@
       <c r="K304" s="5"/>
       <c r="L304" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" hidden="1">
       <c r="A305" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39102,7 +39102,7 @@
       <c r="K305" s="5"/>
       <c r="L305" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" hidden="1">
       <c r="A306" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39134,7 +39134,7 @@
       <c r="K306" s="5"/>
       <c r="L306" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" hidden="1">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="119"/>
@@ -39148,7 +39148,7 @@
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" hidden="1">
       <c r="A308" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39184,7 +39184,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" hidden="1">
       <c r="A309" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39216,7 +39216,7 @@
       <c r="K309" s="5"/>
       <c r="L309" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" hidden="1">
       <c r="A310" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39248,7 +39248,7 @@
       <c r="K310" s="5"/>
       <c r="L310" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" hidden="1">
       <c r="A311" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39280,7 +39280,7 @@
       <c r="K311" s="5"/>
       <c r="L311" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" hidden="1">
       <c r="A312" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39312,7 +39312,7 @@
       <c r="K312" s="5"/>
       <c r="L312" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" hidden="1">
       <c r="A313" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39344,7 +39344,7 @@
       <c r="K313" s="5"/>
       <c r="L313" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" hidden="1">
       <c r="A314" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39376,7 +39376,7 @@
       <c r="K314" s="5"/>
       <c r="L314" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" hidden="1">
       <c r="A315" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39408,7 +39408,7 @@
       <c r="K315" s="5"/>
       <c r="L315" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" hidden="1">
       <c r="A316" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39440,7 +39440,7 @@
       <c r="K316" s="5"/>
       <c r="L316" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" hidden="1">
       <c r="A317" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39472,7 +39472,7 @@
       <c r="K317" s="5"/>
       <c r="L317" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" hidden="1">
       <c r="A318" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39504,7 +39504,7 @@
       <c r="K318" s="5"/>
       <c r="L318" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" hidden="1">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="119"/>
@@ -39518,7 +39518,7 @@
       <c r="K319" s="9"/>
       <c r="L319" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" hidden="1">
       <c r="A320" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39554,7 +39554,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" hidden="1">
       <c r="A321" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39586,7 +39586,7 @@
       <c r="K321" s="5"/>
       <c r="L321" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" hidden="1">
       <c r="A322" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39618,7 +39618,7 @@
       <c r="K322" s="5"/>
       <c r="L322" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" hidden="1">
       <c r="A323" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39650,7 +39650,7 @@
       <c r="K323" s="5"/>
       <c r="L323" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" hidden="1">
       <c r="A324" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39682,7 +39682,7 @@
       <c r="K324" s="5"/>
       <c r="L324" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" hidden="1">
       <c r="A325" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39714,7 +39714,7 @@
       <c r="K325" s="5"/>
       <c r="L325" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" hidden="1">
       <c r="A326" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39746,7 +39746,7 @@
       <c r="K326" s="5"/>
       <c r="L326" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" hidden="1">
       <c r="A327" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39778,7 +39778,7 @@
       <c r="K327" s="5"/>
       <c r="L327" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" hidden="1">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="119"/>
@@ -39792,7 +39792,7 @@
       <c r="K328" s="9"/>
       <c r="L328" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" hidden="1">
       <c r="A329" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39828,7 +39828,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" hidden="1">
       <c r="A330" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39860,7 +39860,7 @@
       <c r="K330" s="5"/>
       <c r="L330" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" hidden="1">
       <c r="A331" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39892,7 +39892,7 @@
       <c r="K331" s="5"/>
       <c r="L331" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" hidden="1">
       <c r="A332" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39924,7 +39924,7 @@
       <c r="K332" s="5"/>
       <c r="L332" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" hidden="1">
       <c r="A333" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39956,7 +39956,7 @@
       <c r="K333" s="5"/>
       <c r="L333" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" hidden="1">
       <c r="A334" s="5" t="s">
         <v>2599</v>
       </c>
@@ -39988,7 +39988,7 @@
       <c r="K334" s="5"/>
       <c r="L334" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" hidden="1">
       <c r="A335" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40020,7 +40020,7 @@
       <c r="K335" s="5"/>
       <c r="L335" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" hidden="1">
       <c r="A336" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40052,7 +40052,7 @@
       <c r="K336" s="5"/>
       <c r="L336" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" hidden="1">
       <c r="A337" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40070,7 +40070,7 @@
       <c r="K337" s="5"/>
       <c r="L337" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" hidden="1">
       <c r="A338" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40088,7 +40088,7 @@
       <c r="K338" s="5"/>
       <c r="L338" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" hidden="1">
       <c r="A339" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40106,7 +40106,7 @@
       <c r="K339" s="5"/>
       <c r="L339" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" hidden="1">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="119"/>
@@ -40120,7 +40120,7 @@
       <c r="K340" s="9"/>
       <c r="L340" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" hidden="1">
       <c r="A341" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40156,7 +40156,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" hidden="1">
       <c r="A342" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40188,7 +40188,7 @@
       <c r="K342" s="5"/>
       <c r="L342" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" hidden="1">
       <c r="A343" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40220,7 +40220,7 @@
       <c r="K343" s="5"/>
       <c r="L343" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" hidden="1">
       <c r="A344" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40252,7 +40252,7 @@
       <c r="K344" s="5"/>
       <c r="L344" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" hidden="1">
       <c r="A345" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40270,7 +40270,7 @@
       <c r="K345" s="5"/>
       <c r="L345" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" hidden="1">
       <c r="A346" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40302,7 +40302,7 @@
       <c r="K346" s="5"/>
       <c r="L346" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" hidden="1">
       <c r="A347" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40320,7 +40320,7 @@
       <c r="K347" s="5"/>
       <c r="L347" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" hidden="1">
       <c r="A348" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40352,7 +40352,7 @@
       <c r="K348" s="5"/>
       <c r="L348" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" hidden="1">
       <c r="A349" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40370,7 +40370,7 @@
       <c r="K349" s="5"/>
       <c r="L349" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" hidden="1">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="119"/>
@@ -40384,7 +40384,7 @@
       <c r="K350" s="9"/>
       <c r="L350" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" hidden="1">
       <c r="A351" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40420,7 +40420,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" hidden="1">
       <c r="A352" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40452,7 +40452,7 @@
       <c r="K352" s="5"/>
       <c r="L352" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" hidden="1">
       <c r="A353" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40484,7 +40484,7 @@
       <c r="K353" s="5"/>
       <c r="L353" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" hidden="1">
       <c r="A354" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40516,7 +40516,7 @@
       <c r="K354" s="5"/>
       <c r="L354" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" hidden="1">
       <c r="A355" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40548,7 +40548,7 @@
       <c r="K355" s="5"/>
       <c r="L355" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" hidden="1">
       <c r="A356" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40578,7 +40578,7 @@
       <c r="K356" s="5"/>
       <c r="L356" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" hidden="1">
       <c r="A357" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40610,7 +40610,7 @@
       <c r="K357" s="5"/>
       <c r="L357" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" hidden="1">
       <c r="A358" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40642,7 +40642,7 @@
       <c r="K358" s="5"/>
       <c r="L358" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" hidden="1">
       <c r="A359" s="5" t="s">
         <v>2599</v>
       </c>
@@ -40674,7 +40674,7 @@
       <c r="K359" s="5"/>
       <c r="L359" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" hidden="1">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="119"/>
@@ -40688,7 +40688,7 @@
       <c r="K360" s="121"/>
       <c r="L360" s="121"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" hidden="1">
       <c r="A361" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40724,7 +40724,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" hidden="1">
       <c r="A362" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40756,7 +40756,7 @@
       <c r="K362" s="68"/>
       <c r="L362" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" hidden="1">
       <c r="A363" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40788,7 +40788,7 @@
       <c r="K363" s="68"/>
       <c r="L363" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" hidden="1">
       <c r="A364" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40820,7 +40820,7 @@
       <c r="K364" s="68"/>
       <c r="L364" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" hidden="1">
       <c r="A365" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40852,7 +40852,7 @@
       <c r="K365" s="68"/>
       <c r="L365" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" hidden="1">
       <c r="A366" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40884,7 +40884,7 @@
       <c r="K366" s="68"/>
       <c r="L366" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" hidden="1">
       <c r="A367" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40916,7 +40916,7 @@
       <c r="K367" s="68"/>
       <c r="L367" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" hidden="1">
       <c r="A368" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40934,7 +40934,7 @@
       <c r="K368" s="68"/>
       <c r="L368" s="68"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" hidden="1">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="119"/>
@@ -40948,7 +40948,7 @@
       <c r="K369" s="9"/>
       <c r="L369" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" hidden="1">
       <c r="A370" s="5" t="s">
         <v>2774</v>
       </c>
@@ -40984,7 +40984,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" hidden="1">
       <c r="A371" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41016,7 +41016,7 @@
       <c r="K371" s="5"/>
       <c r="L371" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" hidden="1">
       <c r="A372" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41048,7 +41048,7 @@
       <c r="K372" s="5"/>
       <c r="L372" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" hidden="1">
       <c r="A373" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41080,7 +41080,7 @@
       <c r="K373" s="5"/>
       <c r="L373" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" hidden="1">
       <c r="A374" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41112,7 +41112,7 @@
       <c r="K374" s="5"/>
       <c r="L374" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" hidden="1">
       <c r="A375" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41144,7 +41144,7 @@
       <c r="K375" s="5"/>
       <c r="L375" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" hidden="1">
       <c r="A376" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41162,7 +41162,7 @@
       <c r="K376" s="5"/>
       <c r="L376" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" hidden="1">
       <c r="A377" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41180,7 +41180,7 @@
       <c r="K377" s="5"/>
       <c r="L377" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" hidden="1">
       <c r="A378" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41198,7 +41198,7 @@
       <c r="K378" s="5"/>
       <c r="L378" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" hidden="1">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="119"/>
@@ -41212,7 +41212,7 @@
       <c r="K379" s="9"/>
       <c r="L379" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" hidden="1">
       <c r="A380" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41248,7 +41248,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" hidden="1">
       <c r="A381" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41280,7 +41280,7 @@
       <c r="K381" s="5"/>
       <c r="L381" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" hidden="1">
       <c r="A382" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41312,7 +41312,7 @@
       <c r="K382" s="5"/>
       <c r="L382" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" hidden="1">
       <c r="A383" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41344,7 +41344,7 @@
       <c r="K383" s="5"/>
       <c r="L383" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" hidden="1">
       <c r="A384" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41376,7 +41376,7 @@
       <c r="K384" s="5"/>
       <c r="L384" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" hidden="1">
       <c r="A385" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41408,7 +41408,7 @@
       <c r="K385" s="5"/>
       <c r="L385" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" hidden="1">
       <c r="A386" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41440,7 +41440,7 @@
       <c r="K386" s="5"/>
       <c r="L386" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" hidden="1">
       <c r="A387" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41472,7 +41472,7 @@
       <c r="K387" s="5"/>
       <c r="L387" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" hidden="1">
       <c r="A388" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41504,7 +41504,7 @@
       <c r="K388" s="5"/>
       <c r="L388" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" hidden="1">
       <c r="A389" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41536,7 +41536,7 @@
       <c r="K389" s="5"/>
       <c r="L389" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" hidden="1">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="119"/>
@@ -41550,7 +41550,7 @@
       <c r="K390" s="9"/>
       <c r="L390" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" hidden="1">
       <c r="A391" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41586,7 +41586,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" hidden="1">
       <c r="A392" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41618,7 +41618,7 @@
       <c r="K392" s="5"/>
       <c r="L392" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" hidden="1">
       <c r="A393" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41650,7 +41650,7 @@
       <c r="K393" s="5"/>
       <c r="L393" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" hidden="1">
       <c r="A394" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41682,7 +41682,7 @@
       <c r="K394" s="5"/>
       <c r="L394" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" hidden="1">
       <c r="A395" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41714,7 +41714,7 @@
       <c r="K395" s="5"/>
       <c r="L395" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" hidden="1">
       <c r="A396" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41746,7 +41746,7 @@
       <c r="K396" s="5"/>
       <c r="L396" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" hidden="1">
       <c r="A397" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41778,7 +41778,7 @@
       <c r="K397" s="5"/>
       <c r="L397" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" hidden="1">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="119"/>
@@ -41792,7 +41792,7 @@
       <c r="K398" s="9"/>
       <c r="L398" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" hidden="1">
       <c r="A399" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41828,7 +41828,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" hidden="1">
       <c r="A400" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41860,7 +41860,7 @@
       <c r="K400" s="5"/>
       <c r="L400" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" hidden="1">
       <c r="A401" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41892,7 +41892,7 @@
       <c r="K401" s="5"/>
       <c r="L401" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" hidden="1">
       <c r="A402" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41924,7 +41924,7 @@
       <c r="K402" s="5"/>
       <c r="L402" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" hidden="1">
       <c r="A403" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41956,7 +41956,7 @@
       <c r="K403" s="5"/>
       <c r="L403" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" hidden="1">
       <c r="A404" s="5" t="s">
         <v>2774</v>
       </c>
@@ -41988,7 +41988,7 @@
       <c r="K404" s="5"/>
       <c r="L404" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" hidden="1">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="119"/>
@@ -42002,7 +42002,7 @@
       <c r="K405" s="9"/>
       <c r="L405" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" hidden="1">
       <c r="A406" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42034,7 +42034,7 @@
       <c r="K406" s="5"/>
       <c r="L406" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" hidden="1">
       <c r="A407" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42066,7 +42066,7 @@
       <c r="K407" s="5"/>
       <c r="L407" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" hidden="1">
       <c r="A408" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42098,7 +42098,7 @@
       <c r="K408" s="5"/>
       <c r="L408" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" hidden="1">
       <c r="A409" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42130,7 +42130,7 @@
       <c r="K409" s="5"/>
       <c r="L409" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" hidden="1">
       <c r="A410" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42162,7 +42162,7 @@
       <c r="K410" s="5"/>
       <c r="L410" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" hidden="1">
       <c r="A411" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42194,7 +42194,7 @@
       <c r="K411" s="5"/>
       <c r="L411" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" hidden="1">
       <c r="A412" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42226,7 +42226,7 @@
       <c r="K412" s="5"/>
       <c r="L412" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" hidden="1">
       <c r="A413" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42258,7 +42258,7 @@
       <c r="K413" s="5"/>
       <c r="L413" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" hidden="1">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="119"/>
@@ -42272,7 +42272,7 @@
       <c r="K414" s="9"/>
       <c r="L414" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" hidden="1">
       <c r="A415" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42308,7 +42308,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" hidden="1">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="25"/>
@@ -42322,7 +42322,7 @@
       <c r="K416" s="5"/>
       <c r="L416" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" hidden="1">
       <c r="A417" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42354,7 +42354,7 @@
       <c r="K417" s="5"/>
       <c r="L417" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" hidden="1">
       <c r="A418" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42386,7 +42386,7 @@
       <c r="K418" s="5"/>
       <c r="L418" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" hidden="1">
       <c r="A419" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42418,7 +42418,7 @@
       <c r="K419" s="5"/>
       <c r="L419" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" hidden="1">
       <c r="A420" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42450,7 +42450,7 @@
       <c r="K420" s="5"/>
       <c r="L420" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" hidden="1">
       <c r="A421" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42482,7 +42482,7 @@
       <c r="K421" s="5"/>
       <c r="L421" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" hidden="1">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="119"/>
@@ -42496,7 +42496,7 @@
       <c r="K422" s="9"/>
       <c r="L422" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" hidden="1">
       <c r="A423" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42532,7 +42532,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" hidden="1">
       <c r="A424" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42564,7 +42564,7 @@
       <c r="K424" s="5"/>
       <c r="L424" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" hidden="1">
       <c r="A425" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42596,7 +42596,7 @@
       <c r="K425" s="5"/>
       <c r="L425" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" hidden="1">
       <c r="A426" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42628,7 +42628,7 @@
       <c r="K426" s="5"/>
       <c r="L426" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" hidden="1">
       <c r="A427" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42660,7 +42660,7 @@
       <c r="K427" s="5"/>
       <c r="L427" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" hidden="1">
       <c r="A428" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42692,7 +42692,7 @@
       <c r="K428" s="5"/>
       <c r="L428" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" hidden="1">
       <c r="A429" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42710,7 +42710,7 @@
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" hidden="1">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="119"/>
@@ -42724,7 +42724,7 @@
       <c r="K430" s="9"/>
       <c r="L430" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" hidden="1">
       <c r="A431" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" hidden="1">
       <c r="A432" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42792,7 +42792,7 @@
       <c r="K432" s="5"/>
       <c r="L432" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" hidden="1">
       <c r="A433" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42824,7 +42824,7 @@
       <c r="K433" s="5"/>
       <c r="L433" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" hidden="1">
       <c r="A434" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42856,7 +42856,7 @@
       <c r="K434" s="5"/>
       <c r="L434" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" hidden="1">
       <c r="A435" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42888,7 +42888,7 @@
       <c r="K435" s="5"/>
       <c r="L435" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" hidden="1">
       <c r="A436" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42920,7 +42920,7 @@
       <c r="K436" s="5"/>
       <c r="L436" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" hidden="1">
       <c r="A437" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42952,7 +42952,7 @@
       <c r="K437" s="5"/>
       <c r="L437" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" hidden="1">
       <c r="A438" s="5" t="s">
         <v>2774</v>
       </c>
@@ -42984,7 +42984,7 @@
       <c r="K438" s="5"/>
       <c r="L438" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" hidden="1">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="119"/>
@@ -42998,7 +42998,7 @@
       <c r="K439" s="9"/>
       <c r="L439" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" hidden="1">
       <c r="A440" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43034,7 +43034,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" hidden="1">
       <c r="A441" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43066,7 +43066,7 @@
       <c r="K441" s="5"/>
       <c r="L441" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" hidden="1">
       <c r="A442" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43098,7 +43098,7 @@
       <c r="K442" s="5"/>
       <c r="L442" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" hidden="1">
       <c r="A443" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43130,7 +43130,7 @@
       <c r="K443" s="5"/>
       <c r="L443" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" hidden="1">
       <c r="A444" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43162,7 +43162,7 @@
       <c r="K444" s="5"/>
       <c r="L444" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" hidden="1">
       <c r="A445" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43194,7 +43194,7 @@
       <c r="K445" s="5"/>
       <c r="L445" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" hidden="1">
       <c r="A446" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43226,7 +43226,7 @@
       <c r="K446" s="5"/>
       <c r="L446" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" hidden="1">
       <c r="A447" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43258,7 +43258,7 @@
       <c r="K447" s="5"/>
       <c r="L447" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" hidden="1">
       <c r="A448" s="5" t="s">
         <v>2774</v>
       </c>
@@ -43290,7 +43290,7 @@
       <c r="K448" s="5"/>
       <c r="L448" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" hidden="1">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="119"/>
@@ -43304,7 +43304,7 @@
       <c r="K449" s="9"/>
       <c r="L449" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" hidden="1">
       <c r="A450" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43340,7 +43340,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" hidden="1">
       <c r="A451" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43372,7 +43372,7 @@
       <c r="K451" s="5"/>
       <c r="L451" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" hidden="1">
       <c r="A452" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43404,7 +43404,7 @@
       <c r="K452" s="5"/>
       <c r="L452" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" hidden="1">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="119"/>
@@ -43418,7 +43418,7 @@
       <c r="K453" s="9"/>
       <c r="L453" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" hidden="1">
       <c r="A454" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43454,7 +43454,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" hidden="1">
       <c r="A455" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43486,7 +43486,7 @@
       <c r="K455" s="5"/>
       <c r="L455" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" hidden="1">
       <c r="A456" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43518,7 +43518,7 @@
       <c r="K456" s="5"/>
       <c r="L456" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" hidden="1">
       <c r="A457" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43550,7 +43550,7 @@
       <c r="K457" s="5"/>
       <c r="L457" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" hidden="1">
       <c r="A458" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43582,7 +43582,7 @@
       <c r="K458" s="5"/>
       <c r="L458" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" hidden="1">
       <c r="A459" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43614,7 +43614,7 @@
       <c r="K459" s="5"/>
       <c r="L459" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" hidden="1">
       <c r="A460" s="12"/>
       <c r="B460" s="5" t="s">
         <v>2993</v>
@@ -43644,7 +43644,7 @@
       <c r="K460" s="5"/>
       <c r="L460" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" hidden="1">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="119"/>
@@ -43658,7 +43658,7 @@
       <c r="K461" s="9"/>
       <c r="L461" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" hidden="1">
       <c r="A462" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43694,7 +43694,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" hidden="1">
       <c r="A463" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43726,7 +43726,7 @@
       <c r="K463" s="5"/>
       <c r="L463" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" hidden="1">
       <c r="A464" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43758,7 +43758,7 @@
       <c r="K464" s="5"/>
       <c r="L464" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" hidden="1">
       <c r="A465" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43790,7 +43790,7 @@
       <c r="K465" s="5"/>
       <c r="L465" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" hidden="1">
       <c r="A466" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43822,7 +43822,7 @@
       <c r="K466" s="5"/>
       <c r="L466" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" hidden="1">
       <c r="A467" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43854,7 +43854,7 @@
       <c r="K467" s="5"/>
       <c r="L467" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" hidden="1">
       <c r="A468" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43886,7 +43886,7 @@
       <c r="K468" s="5"/>
       <c r="L468" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" hidden="1">
       <c r="A469" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43918,7 +43918,7 @@
       <c r="K469" s="5"/>
       <c r="L469" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" hidden="1">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="119"/>
@@ -43932,7 +43932,7 @@
       <c r="K470" s="9"/>
       <c r="L470" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" hidden="1">
       <c r="A471" s="5" t="s">
         <v>2979</v>
       </c>
@@ -43968,7 +43968,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" hidden="1">
       <c r="A472" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44000,7 +44000,7 @@
       <c r="K472" s="5"/>
       <c r="L472" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" hidden="1">
       <c r="A473" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44032,7 +44032,7 @@
       <c r="K473" s="5"/>
       <c r="L473" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" hidden="1">
       <c r="A474" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44064,7 +44064,7 @@
       <c r="K474" s="5"/>
       <c r="L474" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" hidden="1">
       <c r="A475" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44096,7 +44096,7 @@
       <c r="K475" s="5"/>
       <c r="L475" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" hidden="1">
       <c r="A476" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44128,7 +44128,7 @@
       <c r="K476" s="5"/>
       <c r="L476" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" hidden="1">
       <c r="A477" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44158,7 +44158,7 @@
       <c r="K477" s="5"/>
       <c r="L477" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" hidden="1">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="119"/>
@@ -44172,7 +44172,7 @@
       <c r="K478" s="9"/>
       <c r="L478" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" hidden="1">
       <c r="A479" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44208,7 +44208,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" hidden="1">
       <c r="A480" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44240,7 +44240,7 @@
       <c r="K480" s="5"/>
       <c r="L480" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" hidden="1">
       <c r="A481" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44272,7 +44272,7 @@
       <c r="K481" s="5"/>
       <c r="L481" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" hidden="1">
       <c r="A482" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44304,7 +44304,7 @@
       <c r="K482" s="5"/>
       <c r="L482" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" hidden="1">
       <c r="A483" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44336,7 +44336,7 @@
       <c r="K483" s="5"/>
       <c r="L483" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" hidden="1">
       <c r="A484" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44368,7 +44368,7 @@
       <c r="K484" s="5"/>
       <c r="L484" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" hidden="1">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="119"/>
@@ -44382,7 +44382,7 @@
       <c r="K485" s="9"/>
       <c r="L485" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" hidden="1">
       <c r="A486" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44418,7 +44418,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" hidden="1">
       <c r="A487" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44482,7 +44482,7 @@
       <c r="K488" s="5"/>
       <c r="L488" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" hidden="1">
       <c r="A489" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44514,7 +44514,7 @@
       <c r="K489" s="5"/>
       <c r="L489" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" hidden="1">
       <c r="A490" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44546,7 +44546,7 @@
       <c r="K490" s="5"/>
       <c r="L490" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" hidden="1">
       <c r="A491" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44578,7 +44578,7 @@
       <c r="K491" s="5"/>
       <c r="L491" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" hidden="1">
       <c r="A492" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44610,7 +44610,7 @@
       <c r="K492" s="5"/>
       <c r="L492" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" hidden="1">
       <c r="A493" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44642,7 +44642,7 @@
       <c r="K493" s="5"/>
       <c r="L493" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" hidden="1">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="119"/>
@@ -44656,7 +44656,7 @@
       <c r="K494" s="9"/>
       <c r="L494" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" hidden="1">
       <c r="A495" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44692,7 +44692,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" hidden="1">
       <c r="A496" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44724,7 +44724,7 @@
       <c r="K496" s="5"/>
       <c r="L496" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" hidden="1">
       <c r="A497" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44756,7 +44756,7 @@
       <c r="K497" s="5"/>
       <c r="L497" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" hidden="1">
       <c r="A498" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44788,7 +44788,7 @@
       <c r="K498" s="5"/>
       <c r="L498" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" hidden="1">
       <c r="A499" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44820,7 +44820,7 @@
       <c r="K499" s="5"/>
       <c r="L499" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" hidden="1">
       <c r="A500" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44852,7 +44852,7 @@
       <c r="K500" s="5"/>
       <c r="L500" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" hidden="1">
       <c r="A501" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44884,7 +44884,7 @@
       <c r="K501" s="5"/>
       <c r="L501" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" hidden="1">
       <c r="A502" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44916,7 +44916,7 @@
       <c r="K502" s="5"/>
       <c r="L502" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" hidden="1">
       <c r="A503" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44946,7 +44946,7 @@
       <c r="K503" s="5"/>
       <c r="L503" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" hidden="1">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="119"/>
@@ -44960,7 +44960,7 @@
       <c r="K504" s="9"/>
       <c r="L504" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" hidden="1">
       <c r="A505" s="5" t="s">
         <v>2979</v>
       </c>
@@ -44996,7 +44996,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" hidden="1">
       <c r="A506" s="5" t="s">
         <v>2979</v>
       </c>
@@ -45028,7 +45028,7 @@
       <c r="K506" s="5"/>
       <c r="L506" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" hidden="1">
       <c r="A507" s="5" t="s">
         <v>2979</v>
       </c>
@@ -45060,7 +45060,7 @@
       <c r="K507" s="5"/>
       <c r="L507" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" hidden="1">
       <c r="A508" s="5" t="s">
         <v>2979</v>
       </c>
@@ -45090,7 +45090,7 @@
       <c r="K508" s="5"/>
       <c r="L508" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" hidden="1">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="119"/>
@@ -45131,7 +45131,7 @@
     <col min="9" max="9" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45156,7 +45156,7 @@
       </c>
       <c r="I1" s="94"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45183,7 +45183,7 @@
       </c>
       <c r="I2" s="112"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45208,7 +45208,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="113"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
       <c r="A4" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45233,7 +45233,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="113"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45258,7 +45258,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="113"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45283,7 +45283,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="112"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
       <c r="A7" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45308,7 +45308,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="112"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
       <c r="A8" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45333,7 +45333,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45358,7 +45358,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
       <c r="C10" s="114"/>
@@ -45369,7 +45369,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45396,7 +45396,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45421,7 +45421,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45446,7 +45446,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45471,7 +45471,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45496,7 +45496,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45546,7 +45546,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45571,7 +45571,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="110"/>
@@ -45582,7 +45582,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45605,7 +45605,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45628,7 +45628,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45651,7 +45651,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45674,7 +45674,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45697,7 +45697,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45720,7 +45720,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45743,7 +45743,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45766,7 +45766,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45789,7 +45789,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45812,7 +45812,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45858,7 +45858,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="110"/>
@@ -45869,7 +45869,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45892,7 +45892,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45915,7 +45915,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45938,7 +45938,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45961,7 +45961,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="5" t="s">
         <v>1604</v>
       </c>
@@ -45984,7 +45984,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
       <c r="A38" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46007,7 +46007,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
       <c r="A39" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46030,7 +46030,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46053,7 +46053,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46076,7 +46076,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46099,7 +46099,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46122,7 +46122,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46145,7 +46145,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="110"/>
@@ -46156,7 +46156,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46208,7 +46208,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46233,7 +46233,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46258,7 +46258,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46283,7 +46283,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
       <c r="A51" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46308,7 +46308,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46333,7 +46333,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46358,7 +46358,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46383,7 +46383,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="110"/>
@@ -46394,7 +46394,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
       <c r="A56" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46421,7 +46421,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
       <c r="A57" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46446,7 +46446,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46471,7 +46471,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46496,7 +46496,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46521,7 +46521,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46546,7 +46546,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46571,7 +46571,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46596,7 +46596,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="110"/>
@@ -46607,7 +46607,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46630,7 +46630,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46653,7 +46653,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46676,7 +46676,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46699,7 +46699,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46722,7 +46722,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46745,7 +46745,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46768,7 +46768,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
       <c r="A72" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46791,7 +46791,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46814,7 +46814,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="110"/>
@@ -46825,7 +46825,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46848,7 +46848,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46871,7 +46871,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46894,7 +46894,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46917,7 +46917,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46940,7 +46940,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="5" t="s">
         <v>1604</v>
       </c>
@@ -46963,7 +46963,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="5" t="s">
         <v>1604</v>
       </c>
@@ -47009,7 +47009,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
       <c r="A83" s="5" t="s">
         <v>1604</v>
       </c>
@@ -47032,7 +47032,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="5" t="s">
         <v>1604</v>
       </c>
@@ -47055,7 +47055,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="5" t="s">
         <v>1604</v>
       </c>
@@ -47078,7 +47078,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="5" t="s">
         <v>1604</v>
       </c>
@@ -47101,7 +47101,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="5" t="s">
         <v>1604</v>
       </c>
@@ -47124,7 +47124,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="5" t="s">
         <v>1604</v>
       </c>
@@ -54078,7 +54078,7 @@
     <col min="2" max="2" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="28.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="87" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="88" width="14.147857142857141" customWidth="1" bestFit="1"/>
